--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3177,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.9776873678888</v>
+        <v>604.1407731221316</v>
       </c>
       <c r="AB2" t="n">
-        <v>708.7199234195307</v>
+        <v>826.6120585955505</v>
       </c>
       <c r="AC2" t="n">
-        <v>641.0806886230297</v>
+        <v>747.7213638805013</v>
       </c>
       <c r="AD2" t="n">
-        <v>517977.6873678889</v>
+        <v>604140.7731221316</v>
       </c>
       <c r="AE2" t="n">
-        <v>708719.9234195307</v>
+        <v>826612.0585955505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584532462415484e-06</v>
+        <v>2.28436406423875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>641080.6886230297</v>
+        <v>747721.3638805012</v>
       </c>
     </row>
     <row r="3">
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.1532681668789</v>
+        <v>381.5868427352634</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.4160697881692</v>
+        <v>522.1039526537759</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.4788168119129</v>
+        <v>472.2750841899986</v>
       </c>
       <c r="AD3" t="n">
-        <v>321153.268166879</v>
+        <v>381586.8427352634</v>
       </c>
       <c r="AE3" t="n">
-        <v>439416.0697881692</v>
+        <v>522103.9526537759</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.197317082463341e-06</v>
+        <v>3.167793844542278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>397478.8168119129</v>
+        <v>472275.0841899986</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.9711705469186</v>
+        <v>331.6861259737991</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.0689069986176</v>
+        <v>453.8275905164884</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.5093481552565</v>
+        <v>410.5149222286177</v>
       </c>
       <c r="AD4" t="n">
-        <v>279971.1705469186</v>
+        <v>331686.125973799</v>
       </c>
       <c r="AE4" t="n">
-        <v>383068.9069986176</v>
+        <v>453827.5905164884</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.434962814869627e-06</v>
+        <v>3.510399240143363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.48263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>346509.3481552565</v>
+        <v>410514.9222286177</v>
       </c>
     </row>
     <row r="5">
@@ -3495,28 +3495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.6767311552547</v>
+        <v>307.4769379281589</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.8281832277552</v>
+        <v>420.703511398445</v>
       </c>
       <c r="AC5" t="n">
-        <v>316.4410724075416</v>
+        <v>380.5521587316634</v>
       </c>
       <c r="AD5" t="n">
-        <v>255676.7311552547</v>
+        <v>307476.9379281588</v>
       </c>
       <c r="AE5" t="n">
-        <v>349828.1832277552</v>
+        <v>420703.511398445</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.561584662567209e-06</v>
+        <v>3.692945452031588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.86342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>316441.0724075416</v>
+        <v>380552.1587316634</v>
       </c>
     </row>
     <row r="6">
@@ -3601,28 +3601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.8616266598087</v>
+        <v>297.6618334327128</v>
       </c>
       <c r="AB6" t="n">
-        <v>336.3987242452429</v>
+        <v>407.2740524159258</v>
       </c>
       <c r="AC6" t="n">
-        <v>304.293302141952</v>
+        <v>368.4043884660717</v>
       </c>
       <c r="AD6" t="n">
-        <v>245861.6266598087</v>
+        <v>297661.8334327128</v>
       </c>
       <c r="AE6" t="n">
-        <v>336398.7242452429</v>
+        <v>407274.0524159258</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.640834918965239e-06</v>
+        <v>3.807197726498337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>304293.302141952</v>
+        <v>368404.3884660717</v>
       </c>
     </row>
     <row r="7">
@@ -3707,28 +3707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>237.7777872642424</v>
+        <v>289.4074018365542</v>
       </c>
       <c r="AB7" t="n">
-        <v>325.3380585504105</v>
+        <v>395.9799749462406</v>
       </c>
       <c r="AC7" t="n">
-        <v>294.288250857289</v>
+        <v>358.188201898756</v>
       </c>
       <c r="AD7" t="n">
-        <v>237777.7872642424</v>
+        <v>289407.4018365542</v>
       </c>
       <c r="AE7" t="n">
-        <v>325338.0585504105</v>
+        <v>395979.9749462407</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.698447597075669e-06</v>
+        <v>3.890255874337981e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>294288.2508572889</v>
+        <v>358188.201898756</v>
       </c>
     </row>
     <row r="8">
@@ -3813,28 +3813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>231.6834905887974</v>
+        <v>274.8504190747688</v>
       </c>
       <c r="AB8" t="n">
-        <v>316.9995729776767</v>
+        <v>376.0624689228113</v>
       </c>
       <c r="AC8" t="n">
-        <v>286.7455786444763</v>
+        <v>340.1715946958075</v>
       </c>
       <c r="AD8" t="n">
-        <v>231683.4905887974</v>
+        <v>274850.4190747688</v>
       </c>
       <c r="AE8" t="n">
-        <v>316999.5729776768</v>
+        <v>376062.4689228113</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.737258690169204e-06</v>
+        <v>3.94620844612786e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.10532407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>286745.5786444762</v>
+        <v>340171.5946958075</v>
       </c>
     </row>
     <row r="9">
@@ -3919,28 +3919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>217.3504265562386</v>
+        <v>269.0652924745706</v>
       </c>
       <c r="AB9" t="n">
-        <v>297.3884424381821</v>
+        <v>368.1470034866472</v>
       </c>
       <c r="AC9" t="n">
-        <v>269.0061068792701</v>
+        <v>333.0115701714453</v>
       </c>
       <c r="AD9" t="n">
-        <v>217350.4265562386</v>
+        <v>269065.2924745706</v>
       </c>
       <c r="AE9" t="n">
-        <v>297388.4424381821</v>
+        <v>368147.0034866472</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.764725810179919e-06</v>
+        <v>3.985806815608383e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.99537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>269006.1068792701</v>
+        <v>333011.5701714453</v>
       </c>
     </row>
     <row r="10">
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>216.1849483126678</v>
+        <v>267.8998142309998</v>
       </c>
       <c r="AB10" t="n">
-        <v>295.7937836880581</v>
+        <v>366.5523447365223</v>
       </c>
       <c r="AC10" t="n">
-        <v>267.5636401221399</v>
+        <v>331.5691034143148</v>
       </c>
       <c r="AD10" t="n">
-        <v>216184.9483126678</v>
+        <v>267899.8142309998</v>
       </c>
       <c r="AE10" t="n">
-        <v>295793.7836880581</v>
+        <v>366552.3447365224</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.772603569265211e-06</v>
+        <v>3.997163900545435e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>267563.6401221399</v>
+        <v>331569.1034143148</v>
       </c>
     </row>
     <row r="11">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>216.7279311582112</v>
+        <v>268.4427970765432</v>
       </c>
       <c r="AB11" t="n">
-        <v>296.5367167720428</v>
+        <v>367.2952778205074</v>
       </c>
       <c r="AC11" t="n">
-        <v>268.2356687153024</v>
+        <v>332.2411320074775</v>
       </c>
       <c r="AD11" t="n">
-        <v>216727.9311582113</v>
+        <v>268442.7970765432</v>
       </c>
       <c r="AE11" t="n">
-        <v>296536.7167720428</v>
+        <v>367295.2778205074</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.772761124446917e-06</v>
+        <v>3.997391042244177e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>268235.6687153024</v>
+        <v>332241.1320074775</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.0590752854311</v>
+        <v>471.7305464258868</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.9054996987545</v>
+        <v>645.4425449028208</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.1867993766504</v>
+        <v>583.8424143015961</v>
       </c>
       <c r="AD2" t="n">
-        <v>396059.0752854311</v>
+        <v>471730.5464258868</v>
       </c>
       <c r="AE2" t="n">
-        <v>541905.4996987545</v>
+        <v>645442.5449028208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8737716332171e-06</v>
+        <v>2.743131181703087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>490186.7993766504</v>
+        <v>583842.4143015961</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.8049430055917</v>
+        <v>328.6415670360413</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.1590259742688</v>
+        <v>449.6618906613875</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.9270066532308</v>
+        <v>406.7467909210912</v>
       </c>
       <c r="AD3" t="n">
-        <v>269804.9430055917</v>
+        <v>328641.5670360413</v>
       </c>
       <c r="AE3" t="n">
-        <v>369159.0259742688</v>
+        <v>449661.8906613875</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.44178701276666e-06</v>
+        <v>3.574684329219853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.87615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>333927.0066532308</v>
+        <v>406746.7909210912</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.2796557269476</v>
+        <v>287.7841970569687</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.6564930050716</v>
+        <v>393.759034556071</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.6717329710137</v>
+        <v>356.1792249423148</v>
       </c>
       <c r="AD4" t="n">
-        <v>237279.6557269476</v>
+        <v>287784.1970569687</v>
       </c>
       <c r="AE4" t="n">
-        <v>324656.4930050716</v>
+        <v>393759.034556071</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.656823346794127e-06</v>
+        <v>3.88948943279435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.83449074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>293671.7329710138</v>
+        <v>356179.2249423148</v>
       </c>
     </row>
     <row r="5">
@@ -4746,28 +4746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.5473020007</v>
+        <v>275.8812511301288</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.6037690419113</v>
+        <v>377.4728988180555</v>
       </c>
       <c r="AC5" t="n">
-        <v>279.1510584527527</v>
+        <v>341.4474151414004</v>
       </c>
       <c r="AD5" t="n">
-        <v>225547.3020007</v>
+        <v>275881.2511301287</v>
       </c>
       <c r="AE5" t="n">
-        <v>308603.7690419113</v>
+        <v>377472.8988180555</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.761842354796929e-06</v>
+        <v>4.043233309805341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38310185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>279151.0584527528</v>
+        <v>341447.4151414004</v>
       </c>
     </row>
     <row r="6">
@@ -4852,28 +4852,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>216.1211241333025</v>
+        <v>258.2083314168713</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.7064566301265</v>
+        <v>353.2920303921856</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.4846474360529</v>
+        <v>319.5743348600334</v>
       </c>
       <c r="AD6" t="n">
-        <v>216121.1241333025</v>
+        <v>258208.3314168713</v>
       </c>
       <c r="AE6" t="n">
-        <v>295706.4566301265</v>
+        <v>353292.0303921856</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.832633750258725e-06</v>
+        <v>4.146869249663242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>267484.6474360529</v>
+        <v>319574.3348600335</v>
       </c>
     </row>
     <row r="7">
@@ -4958,28 +4958,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>201.438123569552</v>
+        <v>251.8573240449979</v>
       </c>
       <c r="AB7" t="n">
-        <v>275.6165274905454</v>
+        <v>344.6023019191549</v>
       </c>
       <c r="AC7" t="n">
-        <v>249.3120729371545</v>
+        <v>311.7139418764619</v>
       </c>
       <c r="AD7" t="n">
-        <v>201438.123569552</v>
+        <v>251857.3240449979</v>
       </c>
       <c r="AE7" t="n">
-        <v>275616.5274905454</v>
+        <v>344602.3019191549</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.876586351124875e-06</v>
+        <v>4.211214203880464e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.93171296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>249312.0729371544</v>
+        <v>311713.9418764619</v>
       </c>
     </row>
     <row r="8">
@@ -5064,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>201.8868533887859</v>
+        <v>252.3060538642318</v>
       </c>
       <c r="AB8" t="n">
-        <v>276.2304994257834</v>
+        <v>345.2162738543929</v>
       </c>
       <c r="AC8" t="n">
-        <v>249.8674482526085</v>
+        <v>312.269317191916</v>
       </c>
       <c r="AD8" t="n">
-        <v>201886.8533887859</v>
+        <v>252306.0538642318</v>
       </c>
       <c r="AE8" t="n">
-        <v>276230.4994257834</v>
+        <v>345216.2738543929</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.876803669299738e-06</v>
+        <v>4.211532349513182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.93171296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>249867.4482526085</v>
+        <v>312269.317191916</v>
       </c>
     </row>
   </sheetData>
@@ -5361,28 +5361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.215154046752</v>
+        <v>252.9042273067622</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.1526713371581</v>
+        <v>346.0347211480123</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.224416388584</v>
+        <v>313.0096530245306</v>
       </c>
       <c r="AD2" t="n">
-        <v>206215.1540467521</v>
+        <v>252904.2273067622</v>
       </c>
       <c r="AE2" t="n">
-        <v>282152.6713371581</v>
+        <v>346034.7211480123</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.800579660389152e-06</v>
+        <v>4.332842418333402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.52893518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>255224.416388584</v>
+        <v>313009.6530245306</v>
       </c>
     </row>
     <row r="3">
@@ -5467,28 +5467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.9335484927627</v>
+        <v>211.7700816725124</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.6153103374016</v>
+        <v>289.7531683808306</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.0330772105423</v>
+        <v>262.0995326617754</v>
       </c>
       <c r="AD3" t="n">
-        <v>172933.5484927627</v>
+        <v>211770.0816725124</v>
       </c>
       <c r="AE3" t="n">
-        <v>236615.3103374016</v>
+        <v>289753.1683808306</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.143831934116821e-06</v>
+        <v>4.863896054418858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>214033.0772105423</v>
+        <v>262099.5326617754</v>
       </c>
     </row>
     <row r="4">
@@ -5573,28 +5573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.6183025194627</v>
+        <v>212.4548356992125</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.5522210059478</v>
+        <v>290.6900790493768</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.880570439845</v>
+        <v>262.9470258910782</v>
       </c>
       <c r="AD4" t="n">
-        <v>173618.3025194627</v>
+        <v>212454.8356992125</v>
       </c>
       <c r="AE4" t="n">
-        <v>237552.2210059478</v>
+        <v>290690.0790493768</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.143225695554956e-06</v>
+        <v>4.862958128533861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.16319444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>214880.570439845</v>
+        <v>262947.0258910782</v>
       </c>
     </row>
   </sheetData>
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.5727461777454</v>
+        <v>317.7230047599575</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.8953710955173</v>
+        <v>434.7226320622782</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.7383391874684</v>
+        <v>393.2333141952997</v>
       </c>
       <c r="AD2" t="n">
-        <v>261572.7461777454</v>
+        <v>317723.0047599575</v>
       </c>
       <c r="AE2" t="n">
-        <v>357895.3710955173</v>
+        <v>434722.6320622782</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424793206302104e-06</v>
+        <v>3.664575347397274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>323738.3391874684</v>
+        <v>393233.3141952998</v>
       </c>
     </row>
     <row r="3">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.2360152737984</v>
+        <v>249.3648083442653</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.3399940039068</v>
+        <v>341.1919319753824</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.0619314183634</v>
+        <v>308.6290528536377</v>
       </c>
       <c r="AD3" t="n">
-        <v>201236.0152737984</v>
+        <v>249364.8083442653</v>
       </c>
       <c r="AE3" t="n">
-        <v>275339.9940039068</v>
+        <v>341191.9319753824</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.894568254044146e-06</v>
+        <v>4.374543543573166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>249061.9314183634</v>
+        <v>308629.0528536377</v>
       </c>
     </row>
     <row r="4">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.5216707381386</v>
+        <v>226.629087805412</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.207178659161</v>
+        <v>310.0839161049391</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.8505637135299</v>
+        <v>280.489942357485</v>
       </c>
       <c r="AD4" t="n">
-        <v>186521.6707381386</v>
+        <v>226629.087805412</v>
       </c>
       <c r="AE4" t="n">
-        <v>255207.178659161</v>
+        <v>310083.9161049391</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.049362032121122e-06</v>
+        <v>4.608482446732852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>230850.5637135299</v>
+        <v>280489.942357485</v>
       </c>
     </row>
     <row r="5">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.7882159413861</v>
+        <v>226.8316681572813</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.6259246303029</v>
+        <v>310.3610954795807</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.2791697182993</v>
+        <v>280.7406681216348</v>
       </c>
       <c r="AD5" t="n">
-        <v>178788.2159413861</v>
+        <v>226831.6681572813</v>
       </c>
       <c r="AE5" t="n">
-        <v>244625.9246303029</v>
+        <v>310361.0954795807</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.053479813403799e-06</v>
+        <v>4.614705624748715e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>221279.1697182993</v>
+        <v>280740.6681216347</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.4127862684441</v>
+        <v>211.7656560912903</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.6933157863672</v>
+        <v>289.7471131053597</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.9625852973577</v>
+        <v>262.0940552932968</v>
       </c>
       <c r="AD2" t="n">
-        <v>166412.7862684441</v>
+        <v>211765.6560912904</v>
       </c>
       <c r="AE2" t="n">
-        <v>227693.3157863672</v>
+        <v>289747.1131053597</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.126237669009793e-06</v>
+        <v>4.940981090826409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.65509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>205962.5852973577</v>
+        <v>262094.0552932968</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.575135704016</v>
+        <v>208.7574133262701</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.8107170958111</v>
+        <v>285.6311026399567</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.4505363765656</v>
+        <v>258.3708710898537</v>
       </c>
       <c r="AD3" t="n">
-        <v>163575.135704016</v>
+        <v>208757.4133262701</v>
       </c>
       <c r="AE3" t="n">
-        <v>223810.7170958111</v>
+        <v>285631.1026399567</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.179378420493002e-06</v>
+        <v>5.024969410343396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202450.5363765656</v>
+        <v>258370.8710898536</v>
       </c>
     </row>
   </sheetData>
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.0991393740658</v>
+        <v>503.1961910454365</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.3758847758053</v>
+        <v>688.4952280375576</v>
       </c>
       <c r="AC2" t="n">
-        <v>528.6038705095071</v>
+        <v>622.786209782774</v>
       </c>
       <c r="AD2" t="n">
-        <v>427099.1393740658</v>
+        <v>503196.1910454365</v>
       </c>
       <c r="AE2" t="n">
-        <v>584375.8847758053</v>
+        <v>688495.2280375576</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794483530903784e-06</v>
+        <v>2.616152935376706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>528603.8705095071</v>
+        <v>622786.209782774</v>
       </c>
     </row>
     <row r="3">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.3583788557318</v>
+        <v>340.2035642789247</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.9128995411382</v>
+        <v>465.4815253684193</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.1275280761756</v>
+        <v>421.0566218946807</v>
       </c>
       <c r="AD3" t="n">
-        <v>289358.3788557317</v>
+        <v>340203.5642789247</v>
       </c>
       <c r="AE3" t="n">
-        <v>395912.8995411382</v>
+        <v>465481.5253684194</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.371556784953613e-06</v>
+        <v>3.457460120151753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>358127.5280761756</v>
+        <v>421056.6218946807</v>
       </c>
     </row>
     <row r="4">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.5980656367384</v>
+        <v>304.7466624946805</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.0381084259866</v>
+        <v>416.9678280991089</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.9671029903578</v>
+        <v>377.1730038033514</v>
       </c>
       <c r="AD4" t="n">
-        <v>245598.0656367384</v>
+        <v>304746.6624946806</v>
       </c>
       <c r="AE4" t="n">
-        <v>336038.1084259866</v>
+        <v>416967.8280991089</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.599952450532954e-06</v>
+        <v>3.790435029446001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.9849537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>303967.1029903578</v>
+        <v>377173.0038033514</v>
       </c>
     </row>
     <row r="5">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.146490252835</v>
+        <v>282.8209939668876</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.6330695441162</v>
+        <v>386.9681611271552</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.3186151877329</v>
+        <v>350.0364629424039</v>
       </c>
       <c r="AD5" t="n">
-        <v>232146.490252835</v>
+        <v>282820.9939668876</v>
       </c>
       <c r="AE5" t="n">
-        <v>317633.0695441162</v>
+        <v>386968.1611271552</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.718349920737803e-06</v>
+        <v>3.963045077899101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.46412037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>287318.6151877329</v>
+        <v>350036.4629424039</v>
       </c>
     </row>
     <row r="6">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>223.3423833418881</v>
+        <v>265.7133861126435</v>
       </c>
       <c r="AB6" t="n">
-        <v>305.5869020587804</v>
+        <v>363.5607773265864</v>
       </c>
       <c r="AC6" t="n">
-        <v>276.4221170202915</v>
+        <v>328.8630469992919</v>
       </c>
       <c r="AD6" t="n">
-        <v>223342.3833418881</v>
+        <v>265713.3861126435</v>
       </c>
       <c r="AE6" t="n">
-        <v>305586.9020587804</v>
+        <v>363560.7773265864</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.785113387338082e-06</v>
+        <v>4.060378620455647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18634259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>276422.1170202915</v>
+        <v>328863.0469992919</v>
       </c>
     </row>
     <row r="7">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>216.145433677434</v>
+        <v>258.5164364481893</v>
       </c>
       <c r="AB7" t="n">
-        <v>295.7397180208686</v>
+        <v>353.7135932886696</v>
       </c>
       <c r="AC7" t="n">
-        <v>267.5147344063453</v>
+        <v>319.9556643853443</v>
       </c>
       <c r="AD7" t="n">
-        <v>216145.433677434</v>
+        <v>258516.4364481893</v>
       </c>
       <c r="AE7" t="n">
-        <v>295739.7180208686</v>
+        <v>353713.5932886696</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.832224704495537e-06</v>
+        <v>4.129061563791919e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.00115740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>267514.7344063453</v>
+        <v>319955.6643853443</v>
       </c>
     </row>
     <row r="8">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.1051942120261</v>
+        <v>255.8649492720957</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.6339753233148</v>
+        <v>350.0857115588143</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.8506625907982</v>
+        <v>316.6740225961277</v>
       </c>
       <c r="AD8" t="n">
-        <v>205105.1942120261</v>
+        <v>255864.9492720957</v>
       </c>
       <c r="AE8" t="n">
-        <v>280633.9753233148</v>
+        <v>350085.7115588143</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.848161790071087e-06</v>
+        <v>4.152296022337675e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>253850.6625907982</v>
+        <v>316674.0225961277</v>
       </c>
     </row>
   </sheetData>
@@ -7821,28 +7821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4398301973831</v>
+        <v>202.0520020836452</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.4161214310642</v>
+        <v>276.4564631559361</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.8571091401704</v>
+        <v>250.0718463214976</v>
       </c>
       <c r="AD2" t="n">
-        <v>157439.8301973831</v>
+        <v>202052.0020836453</v>
       </c>
       <c r="AE2" t="n">
-        <v>215416.1214310642</v>
+        <v>276456.4631559361</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.176911318931166e-06</v>
+        <v>5.090158182019667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>194857.1091401704</v>
+        <v>250071.8463214976</v>
       </c>
     </row>
     <row r="3">
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.934999265446</v>
+        <v>202.5471711517082</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.093633595305</v>
+        <v>277.1339753201769</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.4699604943506</v>
+        <v>250.6846976756778</v>
       </c>
       <c r="AD3" t="n">
-        <v>157934.999265446</v>
+        <v>202547.1711517082</v>
       </c>
       <c r="AE3" t="n">
-        <v>216093.633595305</v>
+        <v>277133.9753201769</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.184579103430452e-06</v>
+        <v>5.102443773932298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.70717592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>195469.9604943506</v>
+        <v>250684.6976756778</v>
       </c>
     </row>
   </sheetData>
@@ -8224,28 +8224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.9160991865413</v>
+        <v>394.6112095617324</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.0375176612054</v>
+        <v>539.9244659402622</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.0865686072422</v>
+        <v>488.3948326996702</v>
       </c>
       <c r="AD2" t="n">
-        <v>328916.0991865413</v>
+        <v>394611.2095617324</v>
       </c>
       <c r="AE2" t="n">
-        <v>450037.5176612054</v>
+        <v>539924.4659402622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.127433936927412e-06</v>
+        <v>3.158905808589038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>407086.5686072422</v>
+        <v>488394.8326996702</v>
       </c>
     </row>
     <row r="3">
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.8067574968105</v>
+        <v>289.1207830826302</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.1141851344579</v>
+        <v>395.5878105223949</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.7994278164739</v>
+        <v>357.8334650971159</v>
       </c>
       <c r="AD3" t="n">
-        <v>239806.7574968105</v>
+        <v>289120.7830826303</v>
       </c>
       <c r="AE3" t="n">
-        <v>328114.1851344579</v>
+        <v>395587.810522395</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.648461013834225e-06</v>
+        <v>3.932549319254373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.2337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>296799.4278164739</v>
+        <v>357833.465097116</v>
       </c>
     </row>
     <row r="4">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.954120465554</v>
+        <v>261.1828051968018</v>
       </c>
       <c r="AB4" t="n">
-        <v>290.0049783766885</v>
+        <v>357.3618366424083</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.3273102650463</v>
+        <v>323.2557245137439</v>
       </c>
       <c r="AD4" t="n">
-        <v>211954.120465554</v>
+        <v>261182.8051968018</v>
       </c>
       <c r="AE4" t="n">
-        <v>290004.9783766885</v>
+        <v>357361.8366424083</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.845945277620993e-06</v>
+        <v>4.225782484878278e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.38310185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>262327.3102650463</v>
+        <v>323255.7245137439</v>
       </c>
     </row>
     <row r="5">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.8416518650131</v>
+        <v>242.0078054834281</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.8004085899212</v>
+        <v>331.1257560931305</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.5738432789755</v>
+        <v>299.5235786696181</v>
       </c>
       <c r="AD5" t="n">
-        <v>200841.6518650131</v>
+        <v>242007.8054834281</v>
       </c>
       <c r="AE5" t="n">
-        <v>274800.4085899213</v>
+        <v>331125.7560931305</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.941440786130127e-06</v>
+        <v>4.367578341044487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.01273148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>248573.8432789755</v>
+        <v>299523.5786696181</v>
       </c>
     </row>
     <row r="6">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.8821054550511</v>
+        <v>239.1960415323162</v>
       </c>
       <c r="AB6" t="n">
-        <v>259.8050736907549</v>
+        <v>327.2785766089504</v>
       </c>
       <c r="AC6" t="n">
-        <v>235.0096420964961</v>
+        <v>296.0435685958566</v>
       </c>
       <c r="AD6" t="n">
-        <v>189882.1054550511</v>
+        <v>239196.0415323162</v>
       </c>
       <c r="AE6" t="n">
-        <v>259805.0736907549</v>
+        <v>327278.5766089504</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.966518152960193e-06</v>
+        <v>4.40481429858403e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.92013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>235009.6420964961</v>
+        <v>296043.5685958567</v>
       </c>
     </row>
     <row r="7">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.5002122309251</v>
+        <v>239.8141483081902</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.6507946504518</v>
+        <v>328.1242975686472</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.7746486347766</v>
+        <v>296.8085751341371</v>
       </c>
       <c r="AD7" t="n">
-        <v>190500.2122309251</v>
+        <v>239814.1483081902</v>
       </c>
       <c r="AE7" t="n">
-        <v>260650.7946504517</v>
+        <v>328124.2975686472</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.96590241404249e-06</v>
+        <v>4.403900022840871e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.92013888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>235774.6486347766</v>
+        <v>296808.5751341371</v>
       </c>
     </row>
   </sheetData>
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.1868128662734</v>
+        <v>442.9696104934266</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.7153935545197</v>
+        <v>606.0905635170858</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.5916788012675</v>
+        <v>548.2461307884629</v>
       </c>
       <c r="AD2" t="n">
-        <v>376186.8128662735</v>
+        <v>442969.6104934266</v>
       </c>
       <c r="AE2" t="n">
-        <v>514715.3935545196</v>
+        <v>606090.5635170857</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.951296323813062e-06</v>
+        <v>2.869269003928453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>465591.6788012675</v>
+        <v>548246.1307884629</v>
       </c>
     </row>
     <row r="3">
@@ -9157,28 +9157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.9569537138224</v>
+        <v>317.3811557107776</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.3163284457588</v>
+        <v>434.2548991118746</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.500875344985</v>
+        <v>392.8102210212155</v>
       </c>
       <c r="AD3" t="n">
-        <v>258956.9537138224</v>
+        <v>317381.1557107776</v>
       </c>
       <c r="AE3" t="n">
-        <v>354316.3284457588</v>
+        <v>434254.8991118746</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.5132990623063e-06</v>
+        <v>3.695661704003073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.62731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>320500.875344985</v>
+        <v>392810.2210212154</v>
       </c>
     </row>
     <row r="4">
@@ -9263,28 +9263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.2895292983754</v>
+        <v>279.4405660282586</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.7240495260048</v>
+        <v>382.3429104875676</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.7826665538048</v>
+        <v>345.8526397322785</v>
       </c>
       <c r="AD4" t="n">
-        <v>229289.5292983754</v>
+        <v>279440.5660282585</v>
       </c>
       <c r="AE4" t="n">
-        <v>313724.0495260048</v>
+        <v>382342.9104875676</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.713046693182886e-06</v>
+        <v>3.989379105551993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.70138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>283782.6665538048</v>
+        <v>345852.6397322785</v>
       </c>
     </row>
     <row r="5">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.2343090775871</v>
+        <v>267.2147536068778</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.2295653811497</v>
+        <v>365.615014567857</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.8623928255755</v>
+        <v>330.7212307213957</v>
       </c>
       <c r="AD5" t="n">
-        <v>217234.3090775871</v>
+        <v>267214.7536068778</v>
       </c>
       <c r="AE5" t="n">
-        <v>297229.5653811496</v>
+        <v>365615.014567857</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.821147346795668e-06</v>
+        <v>4.148334898647247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>268862.3928255755</v>
+        <v>330721.2307213957</v>
       </c>
     </row>
     <row r="6">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.8231212190892</v>
+        <v>249.8888170943971</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.406810025768</v>
+        <v>341.9089038649468</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.3132478058568</v>
+        <v>309.2775979523386</v>
       </c>
       <c r="AD6" t="n">
-        <v>199823.1212190892</v>
+        <v>249888.8170943971</v>
       </c>
       <c r="AE6" t="n">
-        <v>273406.8100257681</v>
+        <v>341908.9038649467</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.890527015400522e-06</v>
+        <v>4.250353710552624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.97800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>247313.2478058568</v>
+        <v>309277.5979523386</v>
       </c>
     </row>
     <row r="7">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>197.6714155327905</v>
+        <v>247.7371114080984</v>
       </c>
       <c r="AB7" t="n">
-        <v>270.4627513792204</v>
+        <v>338.9648452183991</v>
       </c>
       <c r="AC7" t="n">
-        <v>244.6501659845224</v>
+        <v>306.6145161310042</v>
       </c>
       <c r="AD7" t="n">
-        <v>197671.4155327905</v>
+        <v>247737.1114080984</v>
       </c>
       <c r="AE7" t="n">
-        <v>270462.7513792204</v>
+        <v>338964.8452183991</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.905828934405071e-06</v>
+        <v>4.272854302269304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.92013888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>244650.1659845224</v>
+        <v>306614.5161310042</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.7645657127744</v>
+        <v>568.4991769414946</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.5397768777157</v>
+        <v>777.8456543049535</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.4987876459053</v>
+        <v>703.6091567713206</v>
       </c>
       <c r="AD2" t="n">
-        <v>482764.5657127744</v>
+        <v>568499.1769414946</v>
       </c>
       <c r="AE2" t="n">
-        <v>660539.7768777157</v>
+        <v>777845.6543049535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.652837349204315e-06</v>
+        <v>2.391279634818592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.53587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>597498.7876459053</v>
+        <v>703609.1567713206</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.5985634604936</v>
+        <v>369.6725299187979</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.606413051298</v>
+        <v>505.802264235903</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.1780115250161</v>
+        <v>457.529206035164</v>
       </c>
       <c r="AD3" t="n">
-        <v>309598.5634604936</v>
+        <v>369672.5299187979</v>
       </c>
       <c r="AE3" t="n">
-        <v>423606.413051298</v>
+        <v>505802.2642359029</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.258662428452735e-06</v>
+        <v>3.26777070332362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.56481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>383178.0115250161</v>
+        <v>457529.206035164</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.6380306220519</v>
+        <v>323.0447505260065</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.6671373212277</v>
+        <v>442.0040793982398</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.1957473733924</v>
+        <v>399.8198304170925</v>
       </c>
       <c r="AD4" t="n">
-        <v>271638.0306220519</v>
+        <v>323044.7505260064</v>
       </c>
       <c r="AE4" t="n">
-        <v>371667.1373212277</v>
+        <v>442004.0793982397</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485185105323059e-06</v>
+        <v>3.595497484355865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.32638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>336195.7473733923</v>
+        <v>399819.8304170925</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.3279773176487</v>
+        <v>299.8199485676269</v>
       </c>
       <c r="AB5" t="n">
-        <v>339.7732940230096</v>
+        <v>410.2268807528354</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.3458077163681</v>
+        <v>371.0754030108274</v>
       </c>
       <c r="AD5" t="n">
-        <v>248327.9773176487</v>
+        <v>299819.9485676269</v>
       </c>
       <c r="AE5" t="n">
-        <v>339773.2940230096</v>
+        <v>410226.8807528354</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.606254832362655e-06</v>
+        <v>3.770657836826242e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.75347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>307345.8077163681</v>
+        <v>371075.4030108274</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.6238272517356</v>
+        <v>289.9452063011214</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.4956477859481</v>
+        <v>396.7158227409201</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.3353614008739</v>
+        <v>358.8538214126801</v>
       </c>
       <c r="AD6" t="n">
-        <v>238623.8272517356</v>
+        <v>289945.2063011214</v>
       </c>
       <c r="AE6" t="n">
-        <v>326495.6477859481</v>
+        <v>396715.8227409201</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.684762224229608e-06</v>
+        <v>3.88424017294936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.41203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>295335.3614008739</v>
+        <v>358853.8214126801</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>230.7307268602832</v>
+        <v>273.640792410483</v>
       </c>
       <c r="AB7" t="n">
-        <v>315.6959596113551</v>
+        <v>374.4074043557734</v>
       </c>
       <c r="AC7" t="n">
-        <v>285.5663803082031</v>
+        <v>338.6744871681499</v>
       </c>
       <c r="AD7" t="n">
-        <v>230730.7268602832</v>
+        <v>273640.792410483</v>
       </c>
       <c r="AE7" t="n">
-        <v>315695.9596113551</v>
+        <v>374407.4043557734</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.741988448510239e-06</v>
+        <v>3.967033500898847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.17476851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>285566.3803082031</v>
+        <v>338674.48716815</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>224.5111592335741</v>
+        <v>267.4212247837738</v>
       </c>
       <c r="AB8" t="n">
-        <v>307.1860727965375</v>
+        <v>365.8975175409515</v>
       </c>
       <c r="AC8" t="n">
-        <v>277.8686651472879</v>
+        <v>330.9767720072335</v>
       </c>
       <c r="AD8" t="n">
-        <v>224511.1592335741</v>
+        <v>267421.2247837738</v>
       </c>
       <c r="AE8" t="n">
-        <v>307186.0727965375</v>
+        <v>365897.5175409515</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.778251134571509e-06</v>
+        <v>4.019497358110132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.02430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>277868.6651472879</v>
+        <v>330976.7720072335</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>212.1467410261458</v>
+        <v>263.5533714215518</v>
       </c>
       <c r="AB9" t="n">
-        <v>290.2685303255094</v>
+        <v>360.6053499331122</v>
       </c>
       <c r="AC9" t="n">
-        <v>262.5657091857693</v>
+        <v>326.1896814482824</v>
       </c>
       <c r="AD9" t="n">
-        <v>212146.7410261458</v>
+        <v>263553.3714215519</v>
       </c>
       <c r="AE9" t="n">
-        <v>290268.5303255094</v>
+        <v>360605.3499331122</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.79778534063955e-06</v>
+        <v>4.047758910388912e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>262565.7091857693</v>
+        <v>326189.6814482824</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>212.7339621324177</v>
+        <v>264.1405925278237</v>
       </c>
       <c r="AB10" t="n">
-        <v>291.071992149477</v>
+        <v>361.4088117570801</v>
       </c>
       <c r="AC10" t="n">
-        <v>263.2924897409234</v>
+        <v>326.9164620034368</v>
       </c>
       <c r="AD10" t="n">
-        <v>212733.9621324177</v>
+        <v>264140.5925278238</v>
       </c>
       <c r="AE10" t="n">
-        <v>291071.992149477</v>
+        <v>361408.8117570801</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.79730889658911e-06</v>
+        <v>4.047069604235771e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>263292.4897409235</v>
+        <v>326916.4620034368</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9261127505832</v>
+        <v>342.5115260369552</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.2167216351802</v>
+        <v>468.6393804658433</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.8795467984352</v>
+        <v>423.9130957336839</v>
       </c>
       <c r="AD2" t="n">
-        <v>285926.1127505832</v>
+        <v>342511.5260369552</v>
       </c>
       <c r="AE2" t="n">
-        <v>391216.7216351802</v>
+        <v>468639.3804658433</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320738083835458e-06</v>
+        <v>3.485016673700338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.28240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>353879.5467984352</v>
+        <v>423913.0957336839</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.1464760280393</v>
+        <v>259.7213314272356</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.8999236265235</v>
+        <v>355.3621837552155</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.3277203892826</v>
+        <v>321.4469156915743</v>
       </c>
       <c r="AD3" t="n">
-        <v>211146.4760280393</v>
+        <v>259721.3314272356</v>
       </c>
       <c r="AE3" t="n">
-        <v>288899.9236265235</v>
+        <v>355362.1837552155</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811207481939373e-06</v>
+        <v>4.221547022487903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78819444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>261327.7203892826</v>
+        <v>321446.9156915743</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.2555110450624</v>
+        <v>234.7346467196076</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.788960160043</v>
+        <v>321.1742994033576</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.4224348395947</v>
+        <v>290.5218750393566</v>
       </c>
       <c r="AD4" t="n">
-        <v>194255.5110450624</v>
+        <v>234734.6467196076</v>
       </c>
       <c r="AE4" t="n">
-        <v>265788.960160043</v>
+        <v>321174.2994033576</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.991210438296287e-06</v>
+        <v>4.49185469252986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.08217592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>240422.4348395947</v>
+        <v>290521.8750393566</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.0537098746811</v>
+        <v>230.5432244193024</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.0939174932597</v>
+        <v>315.4394104995814</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.3207436132843</v>
+        <v>285.334315883588</v>
       </c>
       <c r="AD5" t="n">
-        <v>182053.7098746811</v>
+        <v>230543.2244193024</v>
       </c>
       <c r="AE5" t="n">
-        <v>249093.9174932597</v>
+        <v>315439.4104995814</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.026546685217132e-06</v>
+        <v>4.544918590848627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>225320.7436132843</v>
+        <v>285334.315883588</v>
       </c>
     </row>
   </sheetData>
@@ -11638,28 +11638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.544094598638</v>
+        <v>276.4660976886321</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.1264040653667</v>
+        <v>378.273111681009</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.1964455020378</v>
+        <v>342.1712568118194</v>
       </c>
       <c r="AD2" t="n">
-        <v>221544.094598638</v>
+        <v>276466.0976886321</v>
       </c>
       <c r="AE2" t="n">
-        <v>303126.4040653667</v>
+        <v>378273.1116810089</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.666271073779344e-06</v>
+        <v>4.08938459104646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.94560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>274196.4455020378</v>
+        <v>342171.2568118194</v>
       </c>
     </row>
     <row r="3">
@@ -11744,28 +11744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.0700798525392</v>
+        <v>219.3611293214919</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.3798273853862</v>
+        <v>300.1395746675457</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.865682456056</v>
+        <v>271.4946749099025</v>
       </c>
       <c r="AD3" t="n">
-        <v>180070.0798525392</v>
+        <v>219361.1293214919</v>
       </c>
       <c r="AE3" t="n">
-        <v>246379.8273853862</v>
+        <v>300139.5746675457</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.087631747578452e-06</v>
+        <v>4.735645154592455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>222865.682456056</v>
+        <v>271494.6749099025</v>
       </c>
     </row>
     <row r="4">
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.0948837909811</v>
+        <v>217.3859332599338</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.6772769944635</v>
+        <v>297.437024276623</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.4210596813888</v>
+        <v>269.0500521352353</v>
       </c>
       <c r="AD4" t="n">
-        <v>178094.8837909811</v>
+        <v>217385.9332599338</v>
       </c>
       <c r="AE4" t="n">
-        <v>243677.2769944635</v>
+        <v>297437.024276623</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.110719186451488e-06</v>
+        <v>4.771055438903979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>220421.0596813888</v>
+        <v>269050.0521352353</v>
       </c>
     </row>
   </sheetData>
@@ -21208,28 +21208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.1416004561055</v>
+        <v>236.0659096506327</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.1601261993088</v>
+        <v>322.9957920767607</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.3308088919532</v>
+        <v>292.1695270084919</v>
       </c>
       <c r="AD2" t="n">
-        <v>190141.6004561055</v>
+        <v>236065.9096506327</v>
       </c>
       <c r="AE2" t="n">
-        <v>260160.1261993088</v>
+        <v>322995.7920767607</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.956356505062882e-06</v>
+        <v>4.619248723947993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.0775462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>235330.8088919531</v>
+        <v>292169.5270084919</v>
       </c>
     </row>
     <row r="3">
@@ -21314,28 +21314,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.2854493101268</v>
+        <v>214.1244176500824</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.2555759760589</v>
+        <v>292.974474731313</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.2803069707007</v>
+        <v>265.0134020553007</v>
       </c>
       <c r="AD3" t="n">
-        <v>168285.4493101268</v>
+        <v>214124.4176500824</v>
       </c>
       <c r="AE3" t="n">
-        <v>230255.5759760588</v>
+        <v>292974.474731313</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168402031655014e-06</v>
+        <v>4.950565676572674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>208280.3069707007</v>
+        <v>265013.4020553007</v>
       </c>
     </row>
   </sheetData>
@@ -21611,28 +21611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.5316896589691</v>
+        <v>202.1969752679361</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.9100517158452</v>
+        <v>276.6548218624481</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.2084608153167</v>
+        <v>250.2512739514584</v>
       </c>
       <c r="AD2" t="n">
-        <v>158531.6896589691</v>
+        <v>202196.9752679361</v>
       </c>
       <c r="AE2" t="n">
-        <v>216910.0517158452</v>
+        <v>276654.8218624481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134986229912173e-06</v>
+        <v>5.109012236471302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>196208.4608153167</v>
+        <v>250251.2739514584</v>
       </c>
     </row>
   </sheetData>
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.0372346158237</v>
+        <v>413.4147997295932</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.8316546036224</v>
+        <v>565.6523675637806</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.5143879186647</v>
+        <v>511.6672995015766</v>
       </c>
       <c r="AD2" t="n">
-        <v>347037.2346158237</v>
+        <v>413414.7997295932</v>
       </c>
       <c r="AE2" t="n">
-        <v>474831.6546036224</v>
+        <v>565652.3675637805</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.041014330503208e-06</v>
+        <v>3.015355394142864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>429514.3879186647</v>
+        <v>511667.2995015766</v>
       </c>
     </row>
     <row r="3">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.4391157238688</v>
+        <v>299.1370382131785</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.2936026103661</v>
+        <v>409.2924926780007</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.7210201859141</v>
+        <v>370.2301916224328</v>
       </c>
       <c r="AD3" t="n">
-        <v>249439.1157238688</v>
+        <v>299137.0382131785</v>
       </c>
       <c r="AE3" t="n">
-        <v>341293.6026103661</v>
+        <v>409292.4926780007</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578604410227835e-06</v>
+        <v>3.809580658761994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.43055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>308721.0201859141</v>
+        <v>370230.1916224328</v>
       </c>
     </row>
     <row r="4">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.1505442416659</v>
+        <v>269.9337180769958</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.2196869878557</v>
+        <v>369.335221708119</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.4717028263096</v>
+        <v>334.0863865135346</v>
       </c>
       <c r="AD4" t="n">
-        <v>220150.5442416659</v>
+        <v>269933.7180769958</v>
       </c>
       <c r="AE4" t="n">
-        <v>301219.6869878556</v>
+        <v>369335.221708119</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.782838786729092e-06</v>
+        <v>4.111312606278814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.52199074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>272471.7028263096</v>
+        <v>334086.3865135346</v>
       </c>
     </row>
     <row r="5">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.367400591319</v>
+        <v>250.8534682959754</v>
       </c>
       <c r="AB5" t="n">
-        <v>286.4657141267351</v>
+        <v>343.2287821963531</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.1258284277187</v>
+        <v>310.4715089482568</v>
       </c>
       <c r="AD5" t="n">
-        <v>209367.400591319</v>
+        <v>250853.4682959754</v>
       </c>
       <c r="AE5" t="n">
-        <v>286465.7141267351</v>
+        <v>343228.7821963531</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.879167395553526e-06</v>
+        <v>4.253626643906086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>259125.8284277187</v>
+        <v>310471.5089482568</v>
       </c>
     </row>
     <row r="6">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.8091486476853</v>
+        <v>243.5069816284402</v>
       </c>
       <c r="AB6" t="n">
-        <v>265.1782274358328</v>
+        <v>333.1769950337188</v>
       </c>
       <c r="AC6" t="n">
-        <v>239.8699895894142</v>
+        <v>301.3790502446492</v>
       </c>
       <c r="AD6" t="n">
-        <v>193809.1486476853</v>
+        <v>243506.9816284402</v>
       </c>
       <c r="AE6" t="n">
-        <v>265178.2274358328</v>
+        <v>333176.9950337188</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.931513879359788e-06</v>
+        <v>4.330962334278582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>239869.9895894142</v>
+        <v>301379.0502446492</v>
       </c>
     </row>
     <row r="7">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>194.4101425536597</v>
+        <v>244.1079755344146</v>
       </c>
       <c r="AB7" t="n">
-        <v>266.0005338119664</v>
+        <v>333.9993014098524</v>
       </c>
       <c r="AC7" t="n">
-        <v>240.6138161991242</v>
+        <v>302.1228768543592</v>
       </c>
       <c r="AD7" t="n">
-        <v>194410.1425536597</v>
+        <v>244107.9755344146</v>
       </c>
       <c r="AE7" t="n">
-        <v>266000.5338119664</v>
+        <v>333999.3014098524</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.930350624164093e-06</v>
+        <v>4.329243763381415e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>240613.8161991242</v>
+        <v>302122.8768543592</v>
       </c>
     </row>
   </sheetData>
@@ -22735,28 +22735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.6069695731001</v>
+        <v>534.7261162710233</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.1720910295116</v>
+        <v>731.6358627333343</v>
       </c>
       <c r="AC2" t="n">
-        <v>556.4609300611066</v>
+        <v>661.8095628514467</v>
       </c>
       <c r="AD2" t="n">
-        <v>449606.9695731001</v>
+        <v>534726.1162710233</v>
       </c>
       <c r="AE2" t="n">
-        <v>615172.0910295116</v>
+        <v>731635.8627333343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.723273374630219e-06</v>
+        <v>2.502484200096111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.92824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>556460.9300611067</v>
+        <v>661809.5628514467</v>
       </c>
     </row>
     <row r="3">
@@ -22841,28 +22841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.362831422608</v>
+        <v>358.8951191069623</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.6014329084355</v>
+        <v>491.0561352973411</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.5096470308753</v>
+        <v>444.1904269461766</v>
       </c>
       <c r="AD3" t="n">
-        <v>299362.831422608</v>
+        <v>358895.1191069623</v>
       </c>
       <c r="AE3" t="n">
-        <v>409601.4329084355</v>
+        <v>491056.1352973412</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.314707800070154e-06</v>
+        <v>3.361346947496214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.34490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>370509.6470308753</v>
+        <v>444190.4269461766</v>
       </c>
     </row>
     <row r="4">
@@ -22947,28 +22947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>263.3580493078995</v>
+        <v>314.4466950061188</v>
       </c>
       <c r="AB4" t="n">
-        <v>360.3381016002095</v>
+        <v>430.239840516491</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.9479389211866</v>
+        <v>389.178353983005</v>
       </c>
       <c r="AD4" t="n">
-        <v>263358.0493078995</v>
+        <v>314446.6950061188</v>
       </c>
       <c r="AE4" t="n">
-        <v>360338.1016002095</v>
+        <v>430239.840516491</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535107867095559e-06</v>
+        <v>3.681405095873021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>325947.9389211866</v>
+        <v>389178.353983005</v>
       </c>
     </row>
     <row r="5">
@@ -23053,28 +23053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>240.6203540011163</v>
+        <v>291.7942510453591</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.2273837649931</v>
+        <v>399.245767334083</v>
       </c>
       <c r="AC5" t="n">
-        <v>297.8063843320952</v>
+        <v>361.1423116446711</v>
       </c>
       <c r="AD5" t="n">
-        <v>240620.3540011162</v>
+        <v>291794.2510453591</v>
       </c>
       <c r="AE5" t="n">
-        <v>329227.3837649931</v>
+        <v>399245.767334083</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.658946122241827e-06</v>
+        <v>3.861239172945967e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.62037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>297806.3843320952</v>
+        <v>361142.3116446711</v>
       </c>
     </row>
     <row r="6">
@@ -23159,28 +23159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.1663994412584</v>
+        <v>282.169704284909</v>
       </c>
       <c r="AB6" t="n">
-        <v>316.2920660571629</v>
+        <v>386.0770378513992</v>
       </c>
       <c r="AC6" t="n">
-        <v>286.1055951914637</v>
+        <v>349.2303872213866</v>
       </c>
       <c r="AD6" t="n">
-        <v>231166.3994412585</v>
+        <v>282169.7042849089</v>
       </c>
       <c r="AE6" t="n">
-        <v>316292.0660571629</v>
+        <v>386077.0378513992</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.731861232815017e-06</v>
+        <v>3.967124237291502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>286105.5951914638</v>
+        <v>349230.3872213867</v>
       </c>
     </row>
     <row r="7">
@@ -23265,28 +23265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.8678801860503</v>
+        <v>266.5128838981374</v>
       </c>
       <c r="AB7" t="n">
-        <v>306.3059100242474</v>
+        <v>364.654685468052</v>
       </c>
       <c r="AC7" t="n">
-        <v>277.0725038746685</v>
+        <v>329.8525540830458</v>
       </c>
       <c r="AD7" t="n">
-        <v>223867.8801860503</v>
+        <v>266512.8838981374</v>
       </c>
       <c r="AE7" t="n">
-        <v>306305.9100242474</v>
+        <v>364654.685468052</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.785133033951213e-06</v>
+        <v>4.044483896308227e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>277072.5038746686</v>
+        <v>329852.5540830458</v>
       </c>
     </row>
     <row r="8">
@@ -23371,28 +23371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>208.6274389003028</v>
+        <v>259.7159950899736</v>
       </c>
       <c r="AB8" t="n">
-        <v>285.4532658962813</v>
+        <v>355.3548823431511</v>
       </c>
       <c r="AC8" t="n">
-        <v>258.2100068353992</v>
+        <v>321.4403111160298</v>
       </c>
       <c r="AD8" t="n">
-        <v>208627.4389003028</v>
+        <v>259715.9950899736</v>
       </c>
       <c r="AE8" t="n">
-        <v>285453.2658962813</v>
+        <v>355354.8823431511</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.822871674635873e-06</v>
+        <v>4.09928678100244e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.94328703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>258210.0068353992</v>
+        <v>321440.3111160297</v>
       </c>
     </row>
     <row r="9">
@@ -23477,28 +23477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>209.4096715030032</v>
+        <v>260.498227692674</v>
       </c>
       <c r="AB9" t="n">
-        <v>286.5235510529623</v>
+        <v>356.4251674998326</v>
       </c>
       <c r="AC9" t="n">
-        <v>259.1781454788814</v>
+        <v>322.4084497595122</v>
       </c>
       <c r="AD9" t="n">
-        <v>209409.6715030032</v>
+        <v>260498.227692674</v>
       </c>
       <c r="AE9" t="n">
-        <v>286523.5510529623</v>
+        <v>356425.1674998326</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.818281118626141e-06</v>
+        <v>4.092620517800598e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>259178.1454788814</v>
+        <v>322408.4497595122</v>
       </c>
     </row>
   </sheetData>
@@ -23774,28 +23774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.3122758701732</v>
+        <v>207.951331461408</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.6098400901616</v>
+        <v>284.528185870631</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.9369009658386</v>
+        <v>257.3732151490385</v>
       </c>
       <c r="AD2" t="n">
-        <v>158312.2758701732</v>
+        <v>207951.331461408</v>
       </c>
       <c r="AE2" t="n">
-        <v>216609.8400901616</v>
+        <v>284528.185870631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.973440863703699e-06</v>
+        <v>4.956548765036562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35069444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>195936.9009658386</v>
+        <v>257373.2151490385</v>
       </c>
     </row>
   </sheetData>
@@ -24071,28 +24071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.7818696548713</v>
+        <v>301.2090642849934</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.2895971924569</v>
+        <v>412.1275301607965</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.194590021923</v>
+        <v>372.7946571068707</v>
       </c>
       <c r="AD2" t="n">
-        <v>245781.8696548713</v>
+        <v>301209.0642849933</v>
       </c>
       <c r="AE2" t="n">
-        <v>336289.5971924569</v>
+        <v>412127.5301607965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.537286112640924e-06</v>
+        <v>3.861512536031095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.40856481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>304194.590021923</v>
+        <v>372794.6571068707</v>
       </c>
     </row>
     <row r="3">
@@ -24177,28 +24177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.2203689582072</v>
+        <v>237.7050226125096</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.2679007389054</v>
+        <v>325.2384987437598</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.4282975807532</v>
+        <v>294.1981928988518</v>
       </c>
       <c r="AD3" t="n">
-        <v>190220.3689582072</v>
+        <v>237705.0226125096</v>
       </c>
       <c r="AE3" t="n">
-        <v>260267.9007389054</v>
+        <v>325238.4987437598</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.993127551876738e-06</v>
+        <v>4.555260640859295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>235428.2975807532</v>
+        <v>294198.1928988518</v>
       </c>
     </row>
     <row r="4">
@@ -24283,28 +24283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.9821991789966</v>
+        <v>221.6949935666265</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.996073404595</v>
+        <v>303.3328706905611</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.2322376271167</v>
+        <v>274.3832072423014</v>
       </c>
       <c r="AD4" t="n">
-        <v>181982.1991789966</v>
+        <v>221694.9935666265</v>
       </c>
       <c r="AE4" t="n">
-        <v>248996.073404595</v>
+        <v>303332.8706905611</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.085659719191307e-06</v>
+        <v>4.696085959017612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.02430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>225232.2376271167</v>
+        <v>274383.2072423014</v>
       </c>
     </row>
     <row r="5">
@@ -24389,28 +24389,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.5873667839709</v>
+        <v>222.3001611716007</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.8240904198308</v>
+        <v>304.1608877057968</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.9812298605478</v>
+        <v>275.1321994757325</v>
       </c>
       <c r="AD5" t="n">
-        <v>182587.3667839709</v>
+        <v>222300.1611716007</v>
       </c>
       <c r="AE5" t="n">
-        <v>249824.0904198308</v>
+        <v>304160.8877057968</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.085600931283229e-06</v>
+        <v>4.69599648931103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.02430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>225981.2298605478</v>
+        <v>275132.1994757325</v>
       </c>
     </row>
   </sheetData>
@@ -24686,28 +24686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.2281091890242</v>
+        <v>368.4725375587021</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.8900764724662</v>
+        <v>504.1603817488931</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.2935498758129</v>
+        <v>456.0440225083179</v>
       </c>
       <c r="AD2" t="n">
-        <v>303228.1091890242</v>
+        <v>368472.5375587021</v>
       </c>
       <c r="AE2" t="n">
-        <v>414890.0764724662</v>
+        <v>504160.3817488931</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.218895861633143e-06</v>
+        <v>3.312613360751842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.76273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>375293.5498758128</v>
+        <v>456044.022508318</v>
       </c>
     </row>
     <row r="3">
@@ -24792,28 +24792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.4550757958832</v>
+        <v>278.3671513680526</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.9505575472908</v>
+        <v>380.8742171937611</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.9875569674453</v>
+        <v>344.524116465109</v>
       </c>
       <c r="AD3" t="n">
-        <v>229455.0757958832</v>
+        <v>278367.1513680526</v>
       </c>
       <c r="AE3" t="n">
-        <v>313950.5575472908</v>
+        <v>380874.2171937611</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72897645508359e-06</v>
+        <v>4.074118133526772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.00231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>283987.5569674453</v>
+        <v>344524.116465109</v>
       </c>
     </row>
     <row r="4">
@@ -24898,28 +24898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.4783633591115</v>
+        <v>252.3050980767057</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.4080735796463</v>
+        <v>345.2149661037334</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.837197785472</v>
+        <v>312.268134251144</v>
       </c>
       <c r="AD4" t="n">
-        <v>203478.3633591114</v>
+        <v>252305.0980767057</v>
       </c>
       <c r="AE4" t="n">
-        <v>278408.0735796463</v>
+        <v>345214.9661037334</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.914341961469544e-06</v>
+        <v>4.350852280313045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.23842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>251837.197785472</v>
+        <v>312268.134251144</v>
       </c>
     </row>
     <row r="5">
@@ -25004,28 +25004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.9724879317038</v>
+        <v>234.8844739953186</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.4557625151618</v>
+        <v>321.3792996918981</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.1708616716945</v>
+        <v>290.7073103880788</v>
       </c>
       <c r="AD5" t="n">
-        <v>185972.4879317038</v>
+        <v>234884.4739953186</v>
       </c>
       <c r="AE5" t="n">
-        <v>254455.7625151618</v>
+        <v>321379.2996918981</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.992902976084415e-06</v>
+        <v>4.468136859164755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.94328703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>230170.8616716945</v>
+        <v>290707.3103880788</v>
       </c>
     </row>
     <row r="6">
@@ -25110,28 +25110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.4695101928783</v>
+        <v>235.3814962564931</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.135810299975</v>
+        <v>322.0593474767113</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.7860066503784</v>
+        <v>291.3224553667627</v>
       </c>
       <c r="AD6" t="n">
-        <v>186469.5101928783</v>
+        <v>235381.4962564931</v>
       </c>
       <c r="AE6" t="n">
-        <v>255135.810299975</v>
+        <v>322059.3474767113</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.993242577012145e-06</v>
+        <v>4.468643853021463e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.94328703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>230786.0066503784</v>
+        <v>291322.4553667627</v>
       </c>
     </row>
   </sheetData>
